--- a/FACEBOOK MESSENGER TEST CASE.xlsx
+++ b/FACEBOOK MESSENGER TEST CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3894a97b162347e0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1383" documentId="8_{7B22137E-1355-4DB8-A6F8-593CE6A671E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD2C9D0-2EAE-4371-91EC-17766D6A69C7}"/>
+  <xr:revisionPtr revIDLastSave="1497" documentId="8_{7B22137E-1355-4DB8-A6F8-593CE6A671E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE80935C-8F4C-45EE-9499-322BF0025807}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0804B44D-6372-49A2-B858-5C70E72CD304}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="349">
   <si>
     <t>TS ID</t>
   </si>
@@ -914,12 +914,6 @@
       </rPr>
       <t xml:space="preserve">                                                           : PRATIBHA TRIPATHI</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Internet Connection must be present                     2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify functionof Profile Activity of user </t>
   </si>
   <si>
     <t>To verify functions of Connceted other profiles activity</t>
@@ -1055,6 +1049,174 @@
       </rPr>
       <t xml:space="preserve">                                           :  21/11/2021</t>
     </r>
+  </si>
+  <si>
+    <t>1) Internet Connection must be present                     2) Messeanger application must be working             3) 'Profile' option must be Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Internet Connection must be present                     2) Messeanger application must be working             3) Atleast one friend must be connected.                    4) 'Freinds' Option must be Working </t>
+  </si>
+  <si>
+    <t>1) Internet Connection must be present                     2) Messeanger application must be working             3) 'Chatbox' and 'Notification' option must be Working</t>
+  </si>
+  <si>
+    <t>1) Internet Connection must be present                     2) Messeanger application must be working             3) 'Chat-Box' option must be Working</t>
+  </si>
+  <si>
+    <t>1) Internet Connection must be present                     2 Messeanger application must be working             3) 'Chat-Box' option must be Working</t>
+  </si>
+  <si>
+    <t>1.with all the valid data</t>
+  </si>
+  <si>
+    <t>2.with all the datas invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.with invalid password and others are valid                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.with invalid number or mail address and valid other datas   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.with invalid date of birth and others valid                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.with all the fields blank                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.with blank username field and others filled                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.with blank mobile number or mail address and others filled  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.with blank password field and others are filled                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.with blank date of birth field and others filled   </t>
+  </si>
+  <si>
+    <t>11.with blank gender field and others valid</t>
+  </si>
+  <si>
+    <t>1.with valid username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.with valid user name and invalid password  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.with invalid username and valid password     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.with both invalid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.with both blank      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.with filled username field and blank password           </t>
+  </si>
+  <si>
+    <t>7.with filled password field and blank username</t>
+  </si>
+  <si>
+    <t>1.search friend with mobile number</t>
+  </si>
+  <si>
+    <t>2.search friend with email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.search friend with username or profile name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.search the event with name or tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.searching friend with filter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.search the place or location </t>
+  </si>
+  <si>
+    <t>7.with blank field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.add profile picture in suggested category  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.add profile picture in upload photos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.add frame for profile picture    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.add thumbnail for profile picture   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.add profile picture with diffrent valid image format(.jpeg, .png, .mpeg, etc...)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.add profile picture with diffrent invalid formats(.gif, .eps, .raw, .cr2, .nef, etc...)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.add profile picture with invalid resolutions of image.                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.add filters for profile picture        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.without any images              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.remove profile picture       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.add profile picture in only me option                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.add profile picture in public option    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.add profile picture in for friends only option                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.add profile picture with valid resolutions of image.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.with select photo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.with upload photo                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.without selecting images                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.add thumbnail for cover picture      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.add cover picture with diffrent valid image format(.jpeg, .png, .mpeg, etc...)                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.add cover picture with diffrent invalid formats(.gif, .eps, .raw, .cr2, .nef, etc...)                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.add profile cover with invalid resolutions of image.                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.add filters for cover  picture       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.remove cover picture      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.repositioning the cover picture                                             </t>
+  </si>
+  <si>
+    <t>11.with select photo from recents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify function of Profile Activity of user </t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1309,6 +1471,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85721A0-51A9-4E4B-B299-623BF6C2A334}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,43 +1807,43 @@
     <col min="1" max="1" width="8.21875" style="23" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="12"/>
     </row>
@@ -1703,73 +1874,331 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="19" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="D21" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" s="19" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="D29" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" s="19" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="C31" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="7"/>
+      <c r="C32"/>
+      <c r="D32" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="23"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="19" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="C39" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C42" s="23"/>
+      <c r="D42" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D48" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D49" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D50" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D51" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D52" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="24" spans="1:3" s="19" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" s="19" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="29"/>
+      <c r="C54" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D55" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D56" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D57" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D60" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D61" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D64" s="19" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +2211,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
